--- a/KOL - 複製.xlsx
+++ b/KOL - 複製.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="maple" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="492">
   <si>
     <t>img</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://twitter.com/sa1008va</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台灣人，喜歡畫畫、玩遊戲，線上遊戲都在玩紙娃娃。擅長日系賽璐璐，最喜歡畫美少男少女。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,14 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.facebook.com/mochi1212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://twitter.com/Machi7769</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pixiv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.pixiv.net/users/4632856</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩3ds、Switch、PC平台遊戲，角色扮演、動作、益智解謎類型都摸一點的雜食性休閒玩家。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,18 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://twitter.com/koya10305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.pixiv.net/users/346397</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.plurk.com/koya10305/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,18 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/CB000s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.pixiv.net/users/3683185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unchaumo@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大家好！我是個愛畫圖ㄉ休閒玩家！但目前還是個小鹹魚xD 大家遇到我時還請多多指教！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,14 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.facebook.com/594charlie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://www.instagram.com/594charlie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雪比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,14 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://twitter.com/SnowBeOuO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.pixiv.net/users/15025124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>說明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,14 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.facebook.com/sooominmin/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.instagram.com/sooominmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>稀飯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/channel/UC-P8XhAZRVRhfhdMMW3El3g?view_as=subscriber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雪糕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,14 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/channel/UC4nliKWZMDyyG4oZQUu4cUA?view_as=subscriber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ic0501/?view_public_for=105554341192590</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>徹夜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/channel/UC0pGDSGcr6EDzxCEo7B9amg?view_as=subscriber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卡約</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,18 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/channel/UCuqIjvqNsNyOW-ARwnwt6cw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sudoukayo/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/levianta_kayo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我是楓7～愛打遊戲肝剪片的歐洲人(x，目前專打艾爾，從內容詳細的攻略到風趣的日常休閒，希望各位會喜歡我的影片^___^</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,19 +284,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/channel/UCfZmOkLu6dUoPbRZUwXvWpQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>七mo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DN_01.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DN_02.png</t>
   </si>
   <si>
     <t>DN_03.png</t>
@@ -450,28 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花千繡o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想看不同以往的攻擊角度嗎？
-想學習如何「花」式打醬油嗎？
-那你一定不能錯過銀月獵手的遊戲視角！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HcPrBV0r7qQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/channel/UCLusYIDQs626H7rj2Z1Pj8Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/alex6508619</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赤燕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -693,9 +572,6 @@
   </si>
   <si>
     <t>MS_10.png</t>
-  </si>
-  <si>
-    <t>MS_11.png</t>
   </si>
   <si>
     <t>MS_12.png</t>
@@ -982,10 +858,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/channel/UCMLyC4amlAmWnI8yeslYVSg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://home.gamer.com.tw/homeindex.php</t>
   </si>
   <si>
@@ -1021,9 +893,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>花羽</t>
-  </si>
-  <si>
     <t>子囧</t>
   </si>
   <si>
@@ -1139,9 +1008,6 @@
   <si>
     <t>大家好，我是IC艾希！ 頻道的影片、實況大多是以「新楓之谷」為主題。打王以夜光這個職業為主。課金部分有抽東西、洗裝備的實況精華！</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">你現在收看的是顏質系玩家 花羽 的頻道 </t>
   </si>
   <si>
     <t>哈囉大家好我是子囧，伺服器在愛麗西亞，主要在twitch開打王練功台</t>
@@ -1420,10 +1286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mTjj2dR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QnALCbVyOmA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1432,10 +1294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RQTpVzXjt-k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8smARlHdXBY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1464,46 +1322,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://i.imgur.com/J7cbO6z.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://i.imgur.com/ODp72zO.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://i.imgur.com/mXirnDy.jpeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.imgur.com/HNFdthO.jpeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.imgur.com/x9PA8ti.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.imgur.com/HxTnEMG.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.imgur.com/0BAMs5c.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.imgur.com/RDJIjJk.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.imgur.com/Bf88k2I.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.imgur.com/4NoVNwA.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RPJ_OFLsncI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1531,9 +1353,6 @@
     <t>https://www.youtube.com/channel/UCGGxr54lBRXgfQOjdKX96sA?view_as=subscriber</t>
   </si>
   <si>
-    <t>https://reurl.cc/k083Xb</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/channel/UCDyR4OzpG5ra_BXiqXV2gYA/videos</t>
   </si>
   <si>
@@ -1556,18 +1375,9 @@
     <t>https://www.youtube.com/channel/UCL92rdEZGj2jTkKSAWAOh6Q</t>
   </si>
   <si>
-    <t>https://reurl.cc/4g7lZv</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/channel/UCmO-NprAnvqi3tKYM_RxlUA</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/channel/UCY5qULPbZdVtGFDWrfh8oYw</t>
   </si>
   <si>
-    <t>https://www.youtube.com/user/apple5462/</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/channel/UCFsLXXWjHTlexNHqRXfm6Xw?view_as=subscriber</t>
   </si>
   <si>
@@ -1578,18 +1388,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.facebook.com/Xintvv/</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.instagram.com/xindatw/</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/shinjoakane520</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.facebook.com/HatHat030</t>
   </si>
   <si>
@@ -1647,15 +1445,6 @@
     <t>https://www.twitch.tv/elsieic529</t>
   </si>
   <si>
-    <t>https://www.facebook.com/%E8%8A%B1%E7%BE%BD%E8%88%87%E4%BB%96%E7%9A%84%E6%81%90%E9%BE%8D%E5%80%91-%E6%96%B0%E6%A5%93%E4%B9%8B%E8%B0%B7-102522471136751/?modal=admin_todo_tour</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/joy20842/?hl=zh-tw</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/thumbe18755</t>
-  </si>
-  <si>
     <t>https://www.twitch.tv/eric06212001</t>
   </si>
   <si>
@@ -1671,9 +1460,6 @@
     <t>https://www.twitch.tv/yucheng1222</t>
   </si>
   <si>
-    <t>https://www.facebook.com/BonnieNini0609</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/bonnie_nini/</t>
   </si>
   <si>
@@ -1756,10 +1542,6 @@
     <t>https://www.instagram.com/maplestory.pimi/?hl=zh-tw</t>
   </si>
   <si>
-    <t>https://www.twitch.tv/michael861223/about</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.twitch.tv/hero70538</t>
   </si>
   <si>
@@ -1778,23 +1560,12 @@
     <t>https://www.twitch.tv/xs5868xs</t>
   </si>
   <si>
-    <t>https://www.twitch.tv/s1uration</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/a17248234</t>
   </si>
   <si>
     <t>https://www.instagram.com/thestral212</t>
   </si>
   <si>
-    <t>https://www.facebook.com/farmercrazy/</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://home.gamer.com.tw/homeindex.php</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>https://home.gamer.com.tw/creation.php?owner=haoaman7777</t>
   </si>
   <si>
@@ -1841,10 +1612,6 @@
   </si>
   <si>
     <t>https://home.gamer.com.tw/homeindex.php?owner=Comingration</t>
-  </si>
-  <si>
-    <t>https://home.gamer.com.tw/bluemaple</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://home.gamer.com.tw/homeindex.php?owner=kenzx1990</t>
@@ -2037,12 +1804,209 @@
     <t>MB_09.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>卡約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊橘子時代活到現在的過氣活化石
+對啦我就菜
+但遊戲玩得開心最重要
+主要更新影片
+有空歡迎來看我被各種吊起來被打（欸嘿</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ynwEl4bTRCM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCuqIjvqNsNyOW-ARwnwt6cw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC-P8XhAZRVRhfhdMMW3El3g?view_as=subscriber</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC4nliKWZMDyyG4oZQUu4cUA?view_as=subscriber</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC0pGDSGcr6EDzxCEo7B9amg?view_as=subscriber</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCuqIjvqNsNyOW-ARwnwt6cw</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCfZmOkLu6dUoPbRZUwXvWpQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mochi1212</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/CB000s </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/594charlie</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sooominmin/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ic0501/?view_public_for=105554341192590</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sudoukayo/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.instagram.com/594charlie</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sooominmin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.twitch.tv/levianta_kayo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://twitter.com/sa1008va</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://twitter.com/Machi7769</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pixiv.net/users/4632856</t>
+  </si>
+  <si>
+    <t>https://twitter.com/koya10305</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pixiv.net/users/346397</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.plurk.com/koya10305/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pixiv.net/users/3683185</t>
+  </si>
+  <si>
+    <t>unchaumo@gmail.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://twitter.com/SnowBeOuO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pixiv.net/users/15025124</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.imgur.com/mTjj2dR.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9FOKv_VAIxM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://17.live/live/51994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://home.gamer.com.tw/homeindex.php?owner=tammy199414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://home.gamer.com.tw/homeindex.php?owner=amabel1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://home.gamer.com.tw/homeindex.php?owner=jingyi8688tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmmrW3WS6nc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMLyC4amlAmWnI8yeslYVSg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Xintvv/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/xindatw/</t>
+  </si>
+  <si>
+    <t>https://www.twitch.tv/shinjoakane520</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/k083Xb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCmO-NprAnvqi3tKYM_RxlUA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/apple5462/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BonnieNini0609</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.twitch.tv/michael861223/about</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pixiv.net/users/4346264</t>
+  </si>
+  <si>
+    <t>https://www.twitch.tv/s1uration</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://home.gamer.com.tw/bluemaple</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pixiv.net/users/12286478</t>
+  </si>
+  <si>
+    <t>https://www.plurk.com/alina212</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/farmercrazy/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2127,16 +2091,57 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2159,12 +2164,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2178,27 +2224,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2219,6 +2244,81 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2502,1055 +2602,1128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="23.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="91.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="20.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="7"/>
-    <col min="12" max="12" width="23.5703125" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="11.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="29"/>
+    <col min="3" max="3" width="23.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="29"/>
+    <col min="5" max="5" width="25.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="29"/>
+    <col min="8" max="9" width="20.7109375" style="29" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="29"/>
+    <col min="13" max="13" width="23.5703125" style="29" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="42" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+    </row>
+    <row r="3" spans="1:18" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+    </row>
+    <row r="4" spans="1:18" ht="42" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+    </row>
+    <row r="5" spans="1:18" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="J5" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+    </row>
+    <row r="6" spans="1:18" ht="42" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="J6" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+    </row>
+    <row r="7" spans="1:18" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="J7" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+    </row>
+    <row r="8" spans="1:18" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="J8" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+    </row>
+    <row r="9" spans="1:18" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="H9" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+    </row>
+    <row r="10" spans="1:18" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="J10" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+    </row>
+    <row r="11" spans="1:18" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="J11" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+    </row>
+    <row r="12" spans="1:18" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+    </row>
+    <row r="13" spans="1:18" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+    </row>
+    <row r="14" spans="1:18" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+    </row>
+    <row r="15" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+    </row>
+    <row r="16" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="N16" s="33"/>
+      <c r="O16" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+    </row>
+    <row r="17" spans="1:17" ht="84" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+    </row>
+    <row r="18" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+    </row>
+    <row r="19" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+    </row>
+    <row r="20" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+    </row>
+    <row r="21" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+    </row>
+    <row r="22" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+    </row>
+    <row r="23" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+    </row>
+    <row r="24" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+    </row>
+    <row r="25" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+    </row>
+    <row r="27" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+    </row>
+    <row r="28" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+    </row>
+    <row r="29" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="N29" s="33"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+    </row>
+    <row r="30" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="N30" s="33"/>
+      <c r="O30" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+    </row>
+    <row r="31" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="N31" s="33"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+    </row>
+    <row r="32" spans="1:17" ht="84" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B32" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="C32" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="N32" s="33"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+    </row>
+    <row r="33" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C33" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q33" s="33"/>
+    </row>
+    <row r="34" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="M34" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="N34" s="33"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+    </row>
+    <row r="35" spans="1:17" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C35" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="N35" s="33"/>
+      <c r="O35" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+    </row>
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C36" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="P36" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q36" s="33"/>
+    </row>
+    <row r="37" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="I5" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="C37" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L37" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="I6" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="I7" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="I8" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="I9" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="I10" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="I11" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="I12" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="C38" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" ht="126" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="10" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:14" ht="42" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="10" t="s">
-        <v>454</v>
-      </c>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="I15" r:id="rId2"/>
+    <hyperlink ref="I19" r:id="rId3"/>
+    <hyperlink ref="I21" r:id="rId4"/>
+    <hyperlink ref="I27" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3558,7 +3731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3587,7 +3760,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>498</v>
+        <v>437</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
@@ -3608,13 +3781,13 @@
         <v>7</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="173.25" x14ac:dyDescent="0.25">
@@ -3622,26 +3795,26 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>474</v>
+        <v>409</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>413</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="F2" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="F2" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="14" t="s">
-        <v>473</v>
+      <c r="M2" s="7" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="157.5" x14ac:dyDescent="0.25">
@@ -3651,20 +3824,20 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>475</v>
+      <c r="C3" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="F3" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="F3" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="17" t="s">
-        <v>492</v>
+      <c r="M3" s="10" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="189" x14ac:dyDescent="0.25">
@@ -3674,20 +3847,20 @@
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>476</v>
+      <c r="C4" s="9" t="s">
+        <v>415</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="H4" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="14"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="189" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -3696,21 +3869,21 @@
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>477</v>
+      <c r="C5" s="9" t="s">
+        <v>416</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="K5" s="16"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="K5" s="9"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="14" t="s">
-        <v>493</v>
+      <c r="M5" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="173.25" x14ac:dyDescent="0.25">
@@ -3720,24 +3893,24 @@
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>478</v>
+      <c r="C6" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="F6" s="19" t="s">
-        <v>499</v>
+      <c r="F6" s="12" t="s">
+        <v>438</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="14"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3746,22 +3919,22 @@
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>479</v>
+      <c r="C7" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>500</v>
+        <v>439</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="14" t="s">
-        <v>494</v>
+      <c r="M7" s="7" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="173.25" x14ac:dyDescent="0.25">
@@ -3771,24 +3944,24 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>480</v>
+      <c r="C8" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="H8" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="K8" s="16"/>
+      <c r="H8" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="K8" s="9"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="17" t="s">
-        <v>495</v>
+      <c r="M8" s="10" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="157.5" x14ac:dyDescent="0.25">
@@ -3798,26 +3971,26 @@
       <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>481</v>
+      <c r="C9" s="9" t="s">
+        <v>420</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" t="s">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="H9" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16" t="s">
-        <v>491</v>
+      <c r="H9" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>430</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="14"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:16" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3826,23 +3999,23 @@
       <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>482</v>
+      <c r="C10" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="F10" t="s">
-        <v>501</v>
+        <v>440</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="H10" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="14"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
@@ -3869,7 +4042,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="A1:XFD1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3917,202 +4090,202 @@
         <v>7</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="I4" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="E5" s="1"/>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="I5" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="E6" s="1"/>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E7" s="1"/>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="H7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="E8" s="1"/>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E9" s="1"/>
       <c r="G9" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="E10" s="1"/>
       <c r="G10" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="E11" s="1"/>
       <c r="G11" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4129,8 +4302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J12" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4177,35 +4350,35 @@
         <v>7</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -4215,29 +4388,27 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" t="s">
-        <v>112</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -4246,20 +4417,20 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4269,25 +4440,23 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -4298,16 +4467,16 @@
     </row>
     <row r="6" spans="1:15" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4317,46 +4486,35 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>97</v>
-      </c>
+    <row r="7" spans="1:15" ht="126" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4367,7 +4525,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -4375,13 +4533,13 @@
     </row>
     <row r="9" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -4392,7 +4550,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -4400,26 +4558,26 @@
     </row>
     <row r="10" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -4429,13 +4587,13 @@
     </row>
     <row r="11" spans="1:15" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -4446,7 +4604,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -4454,21 +4612,21 @@
     </row>
     <row r="12" spans="1:15" ht="126" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -4481,20 +4639,20 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -4516,280 +4674,366 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="28"/>
+    <col min="5" max="5" width="13.7109375" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="O4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="28" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" ht="108" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" ht="108" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I12" s="13"/>
+      <c r="J12" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="M7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C13" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G8" t="s">
+      <c r="D13" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>463</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>465</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>466</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" t="s">
-        <v>90</v>
-      </c>
+      <c r="G13" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
